--- a/artfynd/Gullesheden-Ábrávrre artfynd.xlsx
+++ b/artfynd/Gullesheden-Ábrávrre artfynd.xlsx
@@ -413,14 +413,494 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Taxonsorteringsordning</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Valideringsstatus</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Rödlistade</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>TaxonId</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Artnamn</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Vetenskapligt namn</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Auktor</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Antal</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Enhet</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Ålder-Stadium</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Kön</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Aktivitet</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Metod</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Huvudlokal</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Lokalnamn</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Ost</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Nord</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Noggrannhet</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Län</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Kommun</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Provins</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Socken</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Externid</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Startdatum</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Starttid</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Slutdatum</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>Sluttid</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>Publik kommentar</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>Ej återfunnen</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>Osäker artbestämning</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>Bestämningsmetod</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>Ospontan</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>Biotop</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>Biotop-beskrivning</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>Substratnamn</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>Vetenskapligt Substratnamn</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>Art som substrat beskrivning</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>Substrat</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>Antal substrat</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>Substrat-beskrivning</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>Offentlig samling</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>Privat samling</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>Samlings-nummer</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>Artbestämd av</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>Bestämningsår</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>Bekräftad av</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>Bekräftelseår</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>Rapportör</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>Observatörer</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>Projektnamn</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>115285879</v>
+      </c>
+      <c r="B2" t="n">
+        <v>78566</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>864</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Knottrig blåslav</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Hypogymnia bitteri</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>(Lynge) Ahti</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Norrstrand, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>676372</v>
+      </c>
+      <c r="R2" t="n">
+        <v>7325488</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>2023-08-09</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>2023-08-09</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65410113</v>
+      </c>
+      <c r="B3" t="n">
+        <v>90522</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Norrstrand, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>677295</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7325568</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2016-01-15</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2016-01-15</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>